--- a/Collections/Евро/Vatican_city/#EURO#Vatican_city#Commemorative[2004-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Vatican_city/#EURO#Vatican_city#Commemorative[2004-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>25th Anniversary - Restoration of the Sistine Chapel</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -460,6 +469,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,17 +493,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -491,6 +503,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -507,15 +528,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -530,16 +542,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -810,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -831,16 +843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +862,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -867,13 +879,13 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24">
+      <c r="A3" s="20">
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="9"/>
@@ -889,17 +901,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="21">
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>100000</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -911,17 +923,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
+      <c r="A5" s="21">
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>100000</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -934,17 +946,17 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>100000</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -956,13 +968,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
+      <c r="A7" s="21">
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="9"/>
@@ -978,13 +990,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
+      <c r="A8" s="21">
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9"/>
@@ -1000,13 +1012,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
+      <c r="A9" s="21">
         <v>2010</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="9"/>
@@ -1023,13 +1035,13 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
+      <c r="A10" s="21">
         <v>2011</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9"/>
@@ -1045,13 +1057,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>2012</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9"/>
@@ -1067,13 +1079,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+      <c r="A12" s="21">
         <v>2013</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="9"/>
@@ -1089,13 +1101,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>2013</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="9"/>
@@ -1111,13 +1123,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25">
+      <c r="A14" s="21">
         <v>2014</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="9"/>
@@ -1133,13 +1145,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <v>2015</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9"/>
@@ -1155,13 +1167,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>2016</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9"/>
@@ -1177,13 +1189,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9"/>
@@ -1199,13 +1211,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25">
+      <c r="A18" s="21">
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="9"/>
@@ -1217,13 +1229,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
+      <c r="A19" s="21">
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="9"/>
@@ -1235,13 +1247,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="9"/>
@@ -1253,13 +1265,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="9"/>
@@ -1271,13 +1283,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <v>2019</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="9"/>
@@ -1289,13 +1301,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="9"/>
@@ -1313,7 +1325,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F7:F23">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1330,7 +1342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1354,13 +1366,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1425,17 +1437,41 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Vatican_city/#EURO#Vatican_city#Commemorative[2004-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Vatican_city/#EURO#Vatican_city#Commemorative[2004-present]#circulation_quality.xlsx
@@ -481,6 +481,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,9 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -843,16 +843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +862,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:C7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1444,7 +1444,7 @@
       <c r="B6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1465,8 +1465,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
